--- a/demo/src/main/java/com/uploadFile/personInformation.xlsx
+++ b/demo/src/main/java/com/uploadFile/personInformation.xlsx
@@ -16,12 +16,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="74">
-  <si>
-    <t>210105199710095218</t>
-  </si>
-  <si>
-    <t>导入测试用户1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="83">
+  <si>
+    <t>身份证号</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>居住地（省份）</t>
+  </si>
+  <si>
+    <t>居住地（市）</t>
+  </si>
+  <si>
+    <t>居住地（区）</t>
+  </si>
+  <si>
+    <t>居住地（街道）</t>
+  </si>
+  <si>
+    <t>居住地（栋）</t>
+  </si>
+  <si>
+    <t>居住地（单元）</t>
+  </si>
+  <si>
+    <t>居住地（楼层）</t>
+  </si>
+  <si>
+    <t>居住地（门牌号）</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>国籍</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>证件类型</t>
+  </si>
+  <si>
+    <t>210105199710095219</t>
+  </si>
+  <si>
+    <t>用户2</t>
   </si>
   <si>
     <t>辽宁省</t>
@@ -36,16 +78,16 @@
     <t>柴河街</t>
   </si>
   <si>
-    <t>23号楼</t>
+    <t>24号楼</t>
   </si>
   <si>
     <t>二单元</t>
   </si>
   <si>
-    <t>5楼</t>
-  </si>
-  <si>
-    <t>3号</t>
+    <t>6楼</t>
+  </si>
+  <si>
+    <t>4号</t>
   </si>
   <si>
     <t>男</t>
@@ -60,25 +102,10 @@
     <t>身份证</t>
   </si>
   <si>
-    <t>210105199710095219</t>
-  </si>
-  <si>
-    <t>导入测试用户2</t>
-  </si>
-  <si>
-    <t>24号楼</t>
-  </si>
-  <si>
-    <t>6楼</t>
-  </si>
-  <si>
-    <t>4号</t>
-  </si>
-  <si>
     <t>210105199710095220</t>
   </si>
   <si>
-    <t>导入测试用户3</t>
+    <t>用户3</t>
   </si>
   <si>
     <t>25号楼</t>
@@ -93,7 +120,7 @@
     <t>210105199710095221</t>
   </si>
   <si>
-    <t>导入测试用户4</t>
+    <t>用户4</t>
   </si>
   <si>
     <t>26号楼</t>
@@ -108,7 +135,7 @@
     <t>210105199710095222</t>
   </si>
   <si>
-    <t>导入测试用户5</t>
+    <t>用户5</t>
   </si>
   <si>
     <t>27号楼</t>
@@ -123,7 +150,7 @@
     <t>210105199710095223</t>
   </si>
   <si>
-    <t>导入测试用户6</t>
+    <t>用户6</t>
   </si>
   <si>
     <t>28号楼</t>
@@ -138,7 +165,7 @@
     <t>210105199710095224</t>
   </si>
   <si>
-    <t>导入测试用户7</t>
+    <t>用户7</t>
   </si>
   <si>
     <t>29号楼</t>
@@ -153,7 +180,7 @@
     <t>210105199710095225</t>
   </si>
   <si>
-    <t>导入测试用户8</t>
+    <t>用户8</t>
   </si>
   <si>
     <t>30号楼</t>
@@ -168,7 +195,7 @@
     <t>210105199710095226</t>
   </si>
   <si>
-    <t>导入测试用户9</t>
+    <t>用户9</t>
   </si>
   <si>
     <t>31号楼</t>
@@ -183,7 +210,7 @@
     <t>210105199710095227</t>
   </si>
   <si>
-    <t>导入测试用户10</t>
+    <t>用户10</t>
   </si>
   <si>
     <t>32号楼</t>
@@ -198,7 +225,7 @@
     <t>210105199710095228</t>
   </si>
   <si>
-    <t>导入测试用户11</t>
+    <t>用户11</t>
   </si>
   <si>
     <t>33号楼</t>
@@ -213,7 +240,7 @@
     <t>210105199710095229</t>
   </si>
   <si>
-    <t>导入测试用户12</t>
+    <t>用户12</t>
   </si>
   <si>
     <t>34号楼</t>
@@ -228,7 +255,7 @@
     <t>210105199710095230</t>
   </si>
   <si>
-    <t>导入测试用户13</t>
+    <t>用户13</t>
   </si>
   <si>
     <t>35号楼</t>
@@ -245,12 +272,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,9 +287,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,8 +300,123 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,128 +429,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -419,37 +439,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,139 +607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,17 +633,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,8 +680,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,37 +716,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,148 +735,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1217,8 +1237,8 @@
   <sheetPr/>
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1228,7 +1248,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1279,524 +1299,524 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="M4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="N4" t="s">
         <v>27</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/demo/src/main/java/com/uploadFile/personInformation.xlsx
+++ b/demo/src/main/java/com/uploadFile/personInformation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>证件类型</t>
   </si>
   <si>
-    <t>210105199710095219</t>
+    <t>210105199710095218</t>
   </si>
   <si>
     <t>用户2</t>
@@ -272,10 +272,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -295,6 +295,104 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,49 +406,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -359,30 +414,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -391,21 +422,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -413,22 +429,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -439,187 +439,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,68 +635,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,6 +660,54 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -730,6 +721,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -738,10 +738,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,133 +750,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1238,12 +1238,12 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="21.5583333333333" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1835,7 +1835,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1852,7 +1852,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
